--- a/Idaho/WaterAllocation/IDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Idaho/WaterAllocation/IDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C911F5-19F2-4E0E-854B-CA4FF69F69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C2FDA-E4F9-43E4-9640-95A094CC2E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="2" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
@@ -917,26 +917,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Use logic: if...
-River = Surface Water,
-Ground Water = Ground Water,
-Spring =  groundwater/spring,
-Lake =  Surface Water,
-Pond =  Surface Water, 
-Canal =  Surface Water,
-Creek = Surface Water,
-Fork = Surface Water,
-Waste Water = Reuse,
-Drain = Drain,
-Gluch = Surface Water,
-Reservoir = reservoir,
-Slough = Surface Water,
-Ditch = Surface Water,
-Channel = Surface Water,
-Dry = Surface Water,
-"" = Unspecified</t>
-  </si>
-  <si>
     <t>create custom ID</t>
   </si>
   <si>
@@ -1064,6 +1044,47 @@
   </si>
   <si>
     <t>Given ID Owner is not full concatenated record. Use provided "ownername_USactingThrough_WaDE_05112023.xlsx" from Danielle Favreau to fix.</t>
+  </si>
+  <si>
+    <t>"sub" : "Groundwater",
+"ground water" : "Groundwater",
+"canal" :  "Surface Water",
+"channel" : "Surface Water",
+"creek" : "Surface Water",
+"ditch" : "Surface Water",
+"drain" : "Surface Water",
+"drains" : "Surface Water",
+"draw" : "Surface Water",
+"dry" : "Surface Water",
+"fork" : "Surface Water",
+"gluch" : "Surface Water",
+"gulch": "Surface Water",
+"hole" : "Surface Water",
+"holes" : "Surface Water",
+"hollow"  : "Surface Water",
+"lake" :  "Surface Water",
+"lakes" :  "Surface Water",
+"pond" :  "Surface Water",
+"reservoir" : "Surface Water",
+"river" : "Surface Water",
+"runoff" : "Surface Water",
+"seep" : "Surface Water",
+"slough" : "Surface Water",
+"spring" :  "Surface Water",
+"springs" :  "Surface Water",
+"spr" :  "Surface Water",
+"stream" : "Surface Water",
+"streams" : "Surface Water",
+"surface" : "Surface Water",
+"swamp" : "Surface Water",
+"swamps" : "Surface Water",
+"wash" : "Surface Water",
+"fargo wasteway" : "Surface Water",
+"frozen dog wasteway" : "Surface Water",
+"tunnel no 7 wasteway" : "Surface Water",
+"waste water" : "Reuse",
+"wastewater" : "Reuse",
+"treated municipal wastewater" : "Reuse"</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2515,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>272</v>
@@ -2502,7 +2523,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="86"/>
     </row>
@@ -2511,12 +2532,12 @@
         <v>159</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2527,12 +2548,12 @@
         <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2682,19 +2703,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="73"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2950,7 +2971,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3004,7 +3025,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3032,7 +3053,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -3216,7 +3237,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="101"/>
       <c r="G6" s="98"/>
@@ -3818,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3920,7 +3941,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" s="81"/>
       <c r="G4" s="82"/>
@@ -4039,7 +4060,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>290</v>
@@ -4066,7 +4087,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="59" t="s">
         <v>38</v>
@@ -4082,7 +4103,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -4096,10 +4117,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>290</v>
@@ -4235,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="81" t="s">
         <v>38</v>
@@ -4299,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>38</v>
@@ -4331,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>38</v>
@@ -4363,13 +4384,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>162</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>38</v>
@@ -4462,7 +4483,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>47</v>
@@ -4588,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>38</v>
@@ -4620,10 +4641,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>38</v>
@@ -4713,7 +4734,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>38</v>
@@ -4745,13 +4766,13 @@
         <v>38</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>162</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>38</v>
@@ -4780,10 +4801,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>38</v>
@@ -4841,7 +4862,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>38</v>
@@ -5172,7 +5193,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="91"/>
@@ -5250,7 +5271,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="90"/>
       <c r="G11" s="91"/>
@@ -5408,7 +5429,7 @@
         <v>162</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>38</v>
@@ -5568,7 +5589,7 @@
         <v>162</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>38</v>
@@ -5597,10 +5618,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>38</v>
@@ -5629,10 +5650,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>38</v>
@@ -5661,10 +5682,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>38</v>
@@ -5693,10 +5714,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>38</v>
@@ -5824,7 +5845,7 @@
         <v>162</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>38</v>
@@ -5853,10 +5874,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>38</v>
@@ -5966,7 +5987,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>33</v>
@@ -6105,10 +6126,10 @@
         <v>38</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="53" t="s">
@@ -6196,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F41" s="90" t="s">
         <v>38</v>
@@ -6302,7 +6323,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F44" s="90" t="s">
         <v>38</v>
@@ -6377,10 +6398,10 @@
         <v>38</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G46" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>38</v>

--- a/Idaho/WaterAllocation/IDwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Idaho/WaterAllocation/IDwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C2FDA-E4F9-43E4-9640-95A094CC2E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A5073-F7F4-461C-BF9A-B86CAE070121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1085,6 +1085,120 @@
 "waste water" : "Reuse",
 "wastewater" : "Reuse",
 "treated municipal wastewater" : "Reuse"</t>
+  </si>
+  <si>
+    <t>gulch</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>ground water</t>
+  </si>
+  <si>
+    <t>canal</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>creek</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>drains</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>gluch</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>holes</t>
+  </si>
+  <si>
+    <t>hollow</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>lakes</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>reservoir</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>runoff</t>
+  </si>
+  <si>
+    <t>seep</t>
+  </si>
+  <si>
+    <t>slough</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>springs</t>
+  </si>
+  <si>
+    <t>spr</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>streams</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>swamp</t>
+  </si>
+  <si>
+    <t>swamps</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>wasteway</t>
+  </si>
+  <si>
+    <t>Reuse</t>
+  </si>
+  <si>
+    <t>waste water</t>
+  </si>
+  <si>
+    <t>wastewater</t>
   </si>
 </sst>
 </file>
@@ -2128,13 +2242,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2195,9 +2309,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2235,7 +2349,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2341,7 +2455,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2483,7 +2597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2493,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4830BD-BE5C-4A2A-BA89-DD592E350923}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,30 +2691,464 @@
       <c r="B18" s="88"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A40B7A87-7DE8-48FE-B5E7-5CB675740FAE}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{CF0D17F2-C4A6-40ED-B10A-A4669E8740DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B36168B-09C0-417E-9065-BDBB534C15F4}">
-  <dimension ref="B6:B8"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B8"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="102"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="102"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="str">
+        <f>""""&amp;A1&amp;""""&amp;" : "&amp;""""&amp;B1&amp;""""&amp;","</f>
+        <v>"canal" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D36" si="0">""""&amp;A2&amp;""""&amp;" : "&amp;""""&amp;B2&amp;""""&amp;","</f>
+        <v>"channel" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>"creek" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>"ditch" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>"drain" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>"drains" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>"draw" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>"dry" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>"fork" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>"gluch" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>"ground water" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>"gulch" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>"hole" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>"holes" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>"hollow" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>"lake" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>"lakes" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>"pond" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>"reservoir" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>"river" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>"runoff" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>"seep" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>"slough" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>"spr" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>"spring" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>"springs" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>"stream" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>"streams" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>"sub" : "Groundwater",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>"surface" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>"swamp" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>"swamps" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>"wash" : "Surface Water",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>"waste water" : "Reuse",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>"wastewater" : "Reuse",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>"wasteway" : "Reuse",</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3024,7 +3572,7 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="103" t="s">
         <v>329</v>
       </c>
       <c r="F11" s="19"/>
@@ -3839,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5998,7 +6546,7 @@
       <c r="D34" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="103">
+      <c r="E34" s="102">
         <v>44918</v>
       </c>
       <c r="F34" s="90" t="s">
